--- a/reports/Metricas/MegaSena/Mega_Sena_Métricas.xlsx
+++ b/reports/Metricas/MegaSena/Mega_Sena_Métricas.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Métricas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abaixo da média" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acima da média" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Igual da média" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2966,2527 +2963,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bola 1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bola 2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bola 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bola 4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bola 5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bola 6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Média das Frequencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola Esperada</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Desvio Padrão das Bolas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Probabilidade (E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B2" t="n">
-        <v>47</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56</v>
-      </c>
-      <c r="E2" t="n">
-        <v>39</v>
-      </c>
-      <c r="F2" t="n">
-        <v>44</v>
-      </c>
-      <c r="G2" t="n">
-        <v>283</v>
-      </c>
-      <c r="H2" t="n">
-        <v>290</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>40</v>
-      </c>
-      <c r="B3" t="n">
-        <v>55</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F3" t="n">
-        <v>51</v>
-      </c>
-      <c r="G3" t="n">
-        <v>268</v>
-      </c>
-      <c r="H3" t="n">
-        <v>290</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44.67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B4" t="n">
-        <v>43</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48</v>
-      </c>
-      <c r="E4" t="n">
-        <v>45</v>
-      </c>
-      <c r="F4" t="n">
-        <v>41</v>
-      </c>
-      <c r="G4" t="n">
-        <v>271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>290</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45.17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B5" t="n">
-        <v>59</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43</v>
-      </c>
-      <c r="F5" t="n">
-        <v>55</v>
-      </c>
-      <c r="G5" t="n">
-        <v>287</v>
-      </c>
-      <c r="H5" t="n">
-        <v>290</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47.83</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>43</v>
-      </c>
-      <c r="B6" t="n">
-        <v>45</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43</v>
-      </c>
-      <c r="G6" t="n">
-        <v>273</v>
-      </c>
-      <c r="H6" t="n">
-        <v>290</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>42</v>
-      </c>
-      <c r="B7" t="n">
-        <v>49</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37</v>
-      </c>
-      <c r="E7" t="n">
-        <v>53</v>
-      </c>
-      <c r="F7" t="n">
-        <v>43</v>
-      </c>
-      <c r="G7" t="n">
-        <v>274</v>
-      </c>
-      <c r="H7" t="n">
-        <v>290</v>
-      </c>
-      <c r="I7" t="n">
-        <v>45.67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" t="n">
-        <v>40</v>
-      </c>
-      <c r="C8" t="n">
-        <v>47</v>
-      </c>
-      <c r="D8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>281</v>
-      </c>
-      <c r="H8" t="n">
-        <v>290</v>
-      </c>
-      <c r="I8" t="n">
-        <v>46.83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B9" t="n">
-        <v>47</v>
-      </c>
-      <c r="C9" t="n">
-        <v>41</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>258</v>
-      </c>
-      <c r="H9" t="n">
-        <v>290</v>
-      </c>
-      <c r="I9" t="n">
-        <v>43</v>
-      </c>
-      <c r="J9" t="n">
-        <v>48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>35</v>
-      </c>
-      <c r="B10" t="n">
-        <v>47</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55</v>
-      </c>
-      <c r="D10" t="n">
-        <v>52</v>
-      </c>
-      <c r="E10" t="n">
-        <v>46</v>
-      </c>
-      <c r="F10" t="n">
-        <v>42</v>
-      </c>
-      <c r="G10" t="n">
-        <v>277</v>
-      </c>
-      <c r="H10" t="n">
-        <v>290</v>
-      </c>
-      <c r="I10" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>48</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>56</v>
-      </c>
-      <c r="B11" t="n">
-        <v>42</v>
-      </c>
-      <c r="C11" t="n">
-        <v>56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>41</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>48</v>
-      </c>
-      <c r="G11" t="n">
-        <v>283</v>
-      </c>
-      <c r="H11" t="n">
-        <v>290</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47.17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>48</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B12" t="n">
-        <v>41</v>
-      </c>
-      <c r="C12" t="n">
-        <v>49</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>46</v>
-      </c>
-      <c r="G12" t="n">
-        <v>287</v>
-      </c>
-      <c r="H12" t="n">
-        <v>290</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47.83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>48</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>39</v>
-      </c>
-      <c r="B13" t="n">
-        <v>54</v>
-      </c>
-      <c r="C13" t="n">
-        <v>41</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39</v>
-      </c>
-      <c r="F13" t="n">
-        <v>32</v>
-      </c>
-      <c r="G13" t="n">
-        <v>243</v>
-      </c>
-      <c r="H13" t="n">
-        <v>290</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>48</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>43</v>
-      </c>
-      <c r="B14" t="n">
-        <v>49</v>
-      </c>
-      <c r="C14" t="n">
-        <v>36</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40</v>
-      </c>
-      <c r="E14" t="n">
-        <v>39</v>
-      </c>
-      <c r="F14" t="n">
-        <v>53</v>
-      </c>
-      <c r="G14" t="n">
-        <v>260</v>
-      </c>
-      <c r="H14" t="n">
-        <v>290</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43.33</v>
-      </c>
-      <c r="J14" t="n">
-        <v>48</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>37</v>
-      </c>
-      <c r="B15" t="n">
-        <v>48</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41</v>
-      </c>
-      <c r="E15" t="n">
-        <v>32</v>
-      </c>
-      <c r="F15" t="n">
-        <v>47</v>
-      </c>
-      <c r="G15" t="n">
-        <v>239</v>
-      </c>
-      <c r="H15" t="n">
-        <v>290</v>
-      </c>
-      <c r="I15" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>45</v>
-      </c>
-      <c r="B16" t="n">
-        <v>41</v>
-      </c>
-      <c r="C16" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" t="n">
-        <v>52</v>
-      </c>
-      <c r="E16" t="n">
-        <v>45</v>
-      </c>
-      <c r="F16" t="n">
-        <v>47</v>
-      </c>
-      <c r="G16" t="n">
-        <v>270</v>
-      </c>
-      <c r="H16" t="n">
-        <v>290</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>48</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>44</v>
-      </c>
-      <c r="B17" t="n">
-        <v>62</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>42</v>
-      </c>
-      <c r="E17" t="n">
-        <v>43</v>
-      </c>
-      <c r="F17" t="n">
-        <v>51</v>
-      </c>
-      <c r="G17" t="n">
-        <v>278</v>
-      </c>
-      <c r="H17" t="n">
-        <v>290</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>48</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>35</v>
-      </c>
-      <c r="B18" t="n">
-        <v>47</v>
-      </c>
-      <c r="C18" t="n">
-        <v>39</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52</v>
-      </c>
-      <c r="E18" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" t="n">
-        <v>49</v>
-      </c>
-      <c r="G18" t="n">
-        <v>272</v>
-      </c>
-      <c r="H18" t="n">
-        <v>290</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45.33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>48</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>47</v>
-      </c>
-      <c r="B19" t="n">
-        <v>52</v>
-      </c>
-      <c r="C19" t="n">
-        <v>41</v>
-      </c>
-      <c r="D19" t="n">
-        <v>43</v>
-      </c>
-      <c r="E19" t="n">
-        <v>57</v>
-      </c>
-      <c r="F19" t="n">
-        <v>44</v>
-      </c>
-      <c r="G19" t="n">
-        <v>284</v>
-      </c>
-      <c r="H19" t="n">
-        <v>290</v>
-      </c>
-      <c r="I19" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="J19" t="n">
-        <v>48</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>57</v>
-      </c>
-      <c r="B20" t="n">
-        <v>43</v>
-      </c>
-      <c r="C20" t="n">
-        <v>41</v>
-      </c>
-      <c r="D20" t="n">
-        <v>43</v>
-      </c>
-      <c r="E20" t="n">
-        <v>54</v>
-      </c>
-      <c r="F20" t="n">
-        <v>40</v>
-      </c>
-      <c r="G20" t="n">
-        <v>278</v>
-      </c>
-      <c r="H20" t="n">
-        <v>290</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>48</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>36</v>
-      </c>
-      <c r="B21" t="n">
-        <v>47</v>
-      </c>
-      <c r="C21" t="n">
-        <v>51</v>
-      </c>
-      <c r="D21" t="n">
-        <v>41</v>
-      </c>
-      <c r="E21" t="n">
-        <v>46</v>
-      </c>
-      <c r="F21" t="n">
-        <v>49</v>
-      </c>
-      <c r="G21" t="n">
-        <v>270</v>
-      </c>
-      <c r="H21" t="n">
-        <v>290</v>
-      </c>
-      <c r="I21" t="n">
-        <v>45</v>
-      </c>
-      <c r="J21" t="n">
-        <v>48</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>47</v>
-      </c>
-      <c r="B22" t="n">
-        <v>49</v>
-      </c>
-      <c r="C22" t="n">
-        <v>38</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" t="n">
-        <v>54</v>
-      </c>
-      <c r="F22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" t="n">
-        <v>288</v>
-      </c>
-      <c r="H22" t="n">
-        <v>290</v>
-      </c>
-      <c r="I22" t="n">
-        <v>48</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>43</v>
-      </c>
-      <c r="B23" t="n">
-        <v>43</v>
-      </c>
-      <c r="C23" t="n">
-        <v>45</v>
-      </c>
-      <c r="D23" t="n">
-        <v>51</v>
-      </c>
-      <c r="E23" t="n">
-        <v>29</v>
-      </c>
-      <c r="F23" t="n">
-        <v>41</v>
-      </c>
-      <c r="G23" t="n">
-        <v>252</v>
-      </c>
-      <c r="H23" t="n">
-        <v>290</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42</v>
-      </c>
-      <c r="J23" t="n">
-        <v>48</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>41</v>
-      </c>
-      <c r="B24" t="n">
-        <v>42</v>
-      </c>
-      <c r="C24" t="n">
-        <v>50</v>
-      </c>
-      <c r="D24" t="n">
-        <v>45</v>
-      </c>
-      <c r="E24" t="n">
-        <v>47</v>
-      </c>
-      <c r="F24" t="n">
-        <v>56</v>
-      </c>
-      <c r="G24" t="n">
-        <v>281</v>
-      </c>
-      <c r="H24" t="n">
-        <v>290</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46.83</v>
-      </c>
-      <c r="J24" t="n">
-        <v>48</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>37</v>
-      </c>
-      <c r="B25" t="n">
-        <v>49</v>
-      </c>
-      <c r="C25" t="n">
-        <v>55</v>
-      </c>
-      <c r="D25" t="n">
-        <v>50</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43</v>
-      </c>
-      <c r="F25" t="n">
-        <v>44</v>
-      </c>
-      <c r="G25" t="n">
-        <v>278</v>
-      </c>
-      <c r="H25" t="n">
-        <v>290</v>
-      </c>
-      <c r="I25" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="J25" t="n">
-        <v>48</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>53</v>
-      </c>
-      <c r="B26" t="n">
-        <v>45</v>
-      </c>
-      <c r="C26" t="n">
-        <v>52</v>
-      </c>
-      <c r="D26" t="n">
-        <v>46</v>
-      </c>
-      <c r="E26" t="n">
-        <v>46</v>
-      </c>
-      <c r="F26" t="n">
-        <v>39</v>
-      </c>
-      <c r="G26" t="n">
-        <v>281</v>
-      </c>
-      <c r="H26" t="n">
-        <v>290</v>
-      </c>
-      <c r="I26" t="n">
-        <v>46.83</v>
-      </c>
-      <c r="J26" t="n">
-        <v>48</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>50</v>
-      </c>
-      <c r="B27" t="n">
-        <v>30</v>
-      </c>
-      <c r="C27" t="n">
-        <v>45</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64</v>
-      </c>
-      <c r="E27" t="n">
-        <v>51</v>
-      </c>
-      <c r="F27" t="n">
-        <v>38</v>
-      </c>
-      <c r="G27" t="n">
-        <v>278</v>
-      </c>
-      <c r="H27" t="n">
-        <v>290</v>
-      </c>
-      <c r="I27" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>48</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bola 1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bola 2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bola 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bola 4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bola 5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bola 6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Média das Frequencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola Esperada</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Desvio Padrão das Bolas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Probabilidade (E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B2" t="n">
-        <v>46</v>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>294</v>
-      </c>
-      <c r="H2" t="n">
-        <v>290</v>
-      </c>
-      <c r="I2" t="n">
-        <v>49</v>
-      </c>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>59</v>
-      </c>
-      <c r="B3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51</v>
-      </c>
-      <c r="E3" t="n">
-        <v>47</v>
-      </c>
-      <c r="F3" t="n">
-        <v>49</v>
-      </c>
-      <c r="G3" t="n">
-        <v>305</v>
-      </c>
-      <c r="H3" t="n">
-        <v>290</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.83</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B4" t="n">
-        <v>67</v>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51</v>
-      </c>
-      <c r="E4" t="n">
-        <v>52</v>
-      </c>
-      <c r="F4" t="n">
-        <v>55</v>
-      </c>
-      <c r="G4" t="n">
-        <v>319</v>
-      </c>
-      <c r="H4" t="n">
-        <v>290</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53.17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>53</v>
-      </c>
-      <c r="B5" t="n">
-        <v>53</v>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>291</v>
-      </c>
-      <c r="H5" t="n">
-        <v>290</v>
-      </c>
-      <c r="I5" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B6" t="n">
-        <v>63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44</v>
-      </c>
-      <c r="D6" t="n">
-        <v>55</v>
-      </c>
-      <c r="E6" t="n">
-        <v>63</v>
-      </c>
-      <c r="F6" t="n">
-        <v>58</v>
-      </c>
-      <c r="G6" t="n">
-        <v>340</v>
-      </c>
-      <c r="H6" t="n">
-        <v>290</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56.67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>48</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>52</v>
-      </c>
-      <c r="B7" t="n">
-        <v>54</v>
-      </c>
-      <c r="C7" t="n">
-        <v>51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>46</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46</v>
-      </c>
-      <c r="G7" t="n">
-        <v>304</v>
-      </c>
-      <c r="H7" t="n">
-        <v>290</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50.67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>54</v>
-      </c>
-      <c r="B8" t="n">
-        <v>42</v>
-      </c>
-      <c r="C8" t="n">
-        <v>53</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52</v>
-      </c>
-      <c r="E8" t="n">
-        <v>53</v>
-      </c>
-      <c r="F8" t="n">
-        <v>45</v>
-      </c>
-      <c r="G8" t="n">
-        <v>299</v>
-      </c>
-      <c r="H8" t="n">
-        <v>290</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49.83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B9" t="n">
-        <v>48</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>49</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61</v>
-      </c>
-      <c r="F9" t="n">
-        <v>58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>302</v>
-      </c>
-      <c r="H9" t="n">
-        <v>290</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>51</v>
-      </c>
-      <c r="B10" t="n">
-        <v>59</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43</v>
-      </c>
-      <c r="E10" t="n">
-        <v>46</v>
-      </c>
-      <c r="F10" t="n">
-        <v>59</v>
-      </c>
-      <c r="G10" t="n">
-        <v>308</v>
-      </c>
-      <c r="H10" t="n">
-        <v>290</v>
-      </c>
-      <c r="I10" t="n">
-        <v>51.33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>48</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>37</v>
-      </c>
-      <c r="B11" t="n">
-        <v>49</v>
-      </c>
-      <c r="C11" t="n">
-        <v>53</v>
-      </c>
-      <c r="D11" t="n">
-        <v>53</v>
-      </c>
-      <c r="E11" t="n">
-        <v>47</v>
-      </c>
-      <c r="F11" t="n">
-        <v>64</v>
-      </c>
-      <c r="G11" t="n">
-        <v>303</v>
-      </c>
-      <c r="H11" t="n">
-        <v>290</v>
-      </c>
-      <c r="I11" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>48</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>49</v>
-      </c>
-      <c r="B12" t="n">
-        <v>37</v>
-      </c>
-      <c r="C12" t="n">
-        <v>52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43</v>
-      </c>
-      <c r="E12" t="n">
-        <v>57</v>
-      </c>
-      <c r="F12" t="n">
-        <v>54</v>
-      </c>
-      <c r="G12" t="n">
-        <v>292</v>
-      </c>
-      <c r="H12" t="n">
-        <v>290</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48.67</v>
-      </c>
-      <c r="J12" t="n">
-        <v>48</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>56</v>
-      </c>
-      <c r="B13" t="n">
-        <v>46</v>
-      </c>
-      <c r="C13" t="n">
-        <v>62</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44</v>
-      </c>
-      <c r="E13" t="n">
-        <v>41</v>
-      </c>
-      <c r="F13" t="n">
-        <v>56</v>
-      </c>
-      <c r="G13" t="n">
-        <v>305</v>
-      </c>
-      <c r="H13" t="n">
-        <v>290</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50.83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>48</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>63</v>
-      </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>51</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55</v>
-      </c>
-      <c r="E14" t="n">
-        <v>53</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36</v>
-      </c>
-      <c r="G14" t="n">
-        <v>300</v>
-      </c>
-      <c r="H14" t="n">
-        <v>290</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>48</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>61</v>
-      </c>
-      <c r="B15" t="n">
-        <v>43</v>
-      </c>
-      <c r="C15" t="n">
-        <v>54</v>
-      </c>
-      <c r="D15" t="n">
-        <v>48</v>
-      </c>
-      <c r="E15" t="n">
-        <v>44</v>
-      </c>
-      <c r="F15" t="n">
-        <v>56</v>
-      </c>
-      <c r="G15" t="n">
-        <v>306</v>
-      </c>
-      <c r="H15" t="n">
-        <v>290</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>60</v>
-      </c>
-      <c r="B16" t="n">
-        <v>61</v>
-      </c>
-      <c r="C16" t="n">
-        <v>44</v>
-      </c>
-      <c r="D16" t="n">
-        <v>43</v>
-      </c>
-      <c r="E16" t="n">
-        <v>49</v>
-      </c>
-      <c r="F16" t="n">
-        <v>51</v>
-      </c>
-      <c r="G16" t="n">
-        <v>308</v>
-      </c>
-      <c r="H16" t="n">
-        <v>290</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51.33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>48</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>46</v>
-      </c>
-      <c r="B17" t="n">
-        <v>55</v>
-      </c>
-      <c r="C17" t="n">
-        <v>43</v>
-      </c>
-      <c r="D17" t="n">
-        <v>51</v>
-      </c>
-      <c r="E17" t="n">
-        <v>54</v>
-      </c>
-      <c r="F17" t="n">
-        <v>63</v>
-      </c>
-      <c r="G17" t="n">
-        <v>312</v>
-      </c>
-      <c r="H17" t="n">
-        <v>290</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>48</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>45</v>
-      </c>
-      <c r="B18" t="n">
-        <v>41</v>
-      </c>
-      <c r="C18" t="n">
-        <v>61</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57</v>
-      </c>
-      <c r="E18" t="n">
-        <v>54</v>
-      </c>
-      <c r="F18" t="n">
-        <v>57</v>
-      </c>
-      <c r="G18" t="n">
-        <v>315</v>
-      </c>
-      <c r="H18" t="n">
-        <v>290</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>48</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>62</v>
-      </c>
-      <c r="B19" t="n">
-        <v>41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>54</v>
-      </c>
-      <c r="D19" t="n">
-        <v>47</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64</v>
-      </c>
-      <c r="F19" t="n">
-        <v>37</v>
-      </c>
-      <c r="G19" t="n">
-        <v>305</v>
-      </c>
-      <c r="H19" t="n">
-        <v>290</v>
-      </c>
-      <c r="I19" t="n">
-        <v>50.83</v>
-      </c>
-      <c r="J19" t="n">
-        <v>48</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>47</v>
-      </c>
-      <c r="B20" t="n">
-        <v>45</v>
-      </c>
-      <c r="C20" t="n">
-        <v>49</v>
-      </c>
-      <c r="D20" t="n">
-        <v>56</v>
-      </c>
-      <c r="E20" t="n">
-        <v>51</v>
-      </c>
-      <c r="F20" t="n">
-        <v>46</v>
-      </c>
-      <c r="G20" t="n">
-        <v>294</v>
-      </c>
-      <c r="H20" t="n">
-        <v>290</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>48</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>50</v>
-      </c>
-      <c r="B21" t="n">
-        <v>46</v>
-      </c>
-      <c r="C21" t="n">
-        <v>54</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67</v>
-      </c>
-      <c r="E21" t="n">
-        <v>47</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" t="n">
-        <v>314</v>
-      </c>
-      <c r="H21" t="n">
-        <v>290</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52.33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>48</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>47</v>
-      </c>
-      <c r="B22" t="n">
-        <v>43</v>
-      </c>
-      <c r="C22" t="n">
-        <v>61</v>
-      </c>
-      <c r="D22" t="n">
-        <v>53</v>
-      </c>
-      <c r="E22" t="n">
-        <v>55</v>
-      </c>
-      <c r="F22" t="n">
-        <v>53</v>
-      </c>
-      <c r="G22" t="n">
-        <v>312</v>
-      </c>
-      <c r="H22" t="n">
-        <v>290</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>42</v>
-      </c>
-      <c r="B23" t="n">
-        <v>56</v>
-      </c>
-      <c r="C23" t="n">
-        <v>60</v>
-      </c>
-      <c r="D23" t="n">
-        <v>52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>43</v>
-      </c>
-      <c r="F23" t="n">
-        <v>48</v>
-      </c>
-      <c r="G23" t="n">
-        <v>301</v>
-      </c>
-      <c r="H23" t="n">
-        <v>290</v>
-      </c>
-      <c r="I23" t="n">
-        <v>50.17</v>
-      </c>
-      <c r="J23" t="n">
-        <v>48</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>47</v>
-      </c>
-      <c r="B24" t="n">
-        <v>56</v>
-      </c>
-      <c r="C24" t="n">
-        <v>50</v>
-      </c>
-      <c r="D24" t="n">
-        <v>47</v>
-      </c>
-      <c r="E24" t="n">
-        <v>57</v>
-      </c>
-      <c r="F24" t="n">
-        <v>49</v>
-      </c>
-      <c r="G24" t="n">
-        <v>306</v>
-      </c>
-      <c r="H24" t="n">
-        <v>290</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>48</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>57</v>
-      </c>
-      <c r="B25" t="n">
-        <v>53</v>
-      </c>
-      <c r="C25" t="n">
-        <v>50</v>
-      </c>
-      <c r="D25" t="n">
-        <v>55</v>
-      </c>
-      <c r="E25" t="n">
-        <v>49</v>
-      </c>
-      <c r="F25" t="n">
-        <v>44</v>
-      </c>
-      <c r="G25" t="n">
-        <v>308</v>
-      </c>
-      <c r="H25" t="n">
-        <v>290</v>
-      </c>
-      <c r="I25" t="n">
-        <v>51.33</v>
-      </c>
-      <c r="J25" t="n">
-        <v>48</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>58</v>
-      </c>
-      <c r="B26" t="n">
-        <v>46</v>
-      </c>
-      <c r="C26" t="n">
-        <v>49</v>
-      </c>
-      <c r="D26" t="n">
-        <v>51</v>
-      </c>
-      <c r="E26" t="n">
-        <v>59</v>
-      </c>
-      <c r="F26" t="n">
-        <v>43</v>
-      </c>
-      <c r="G26" t="n">
-        <v>306</v>
-      </c>
-      <c r="H26" t="n">
-        <v>290</v>
-      </c>
-      <c r="I26" t="n">
-        <v>51</v>
-      </c>
-      <c r="J26" t="n">
-        <v>48</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>60</v>
-      </c>
-      <c r="B27" t="n">
-        <v>49</v>
-      </c>
-      <c r="C27" t="n">
-        <v>45</v>
-      </c>
-      <c r="D27" t="n">
-        <v>48</v>
-      </c>
-      <c r="E27" t="n">
-        <v>52</v>
-      </c>
-      <c r="F27" t="n">
-        <v>51</v>
-      </c>
-      <c r="G27" t="n">
-        <v>305</v>
-      </c>
-      <c r="H27" t="n">
-        <v>290</v>
-      </c>
-      <c r="I27" t="n">
-        <v>50.83</v>
-      </c>
-      <c r="J27" t="n">
-        <v>48</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>59</v>
-      </c>
-      <c r="B28" t="n">
-        <v>57</v>
-      </c>
-      <c r="C28" t="n">
-        <v>42</v>
-      </c>
-      <c r="D28" t="n">
-        <v>45</v>
-      </c>
-      <c r="E28" t="n">
-        <v>43</v>
-      </c>
-      <c r="F28" t="n">
-        <v>49</v>
-      </c>
-      <c r="G28" t="n">
-        <v>295</v>
-      </c>
-      <c r="H28" t="n">
-        <v>290</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49.17</v>
-      </c>
-      <c r="J28" t="n">
-        <v>48</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>51</v>
-      </c>
-      <c r="B29" t="n">
-        <v>49</v>
-      </c>
-      <c r="C29" t="n">
-        <v>48</v>
-      </c>
-      <c r="D29" t="n">
-        <v>51</v>
-      </c>
-      <c r="E29" t="n">
-        <v>48</v>
-      </c>
-      <c r="F29" t="n">
-        <v>50</v>
-      </c>
-      <c r="G29" t="n">
-        <v>297</v>
-      </c>
-      <c r="H29" t="n">
-        <v>290</v>
-      </c>
-      <c r="I29" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>48</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>40</v>
-      </c>
-      <c r="B30" t="n">
-        <v>46</v>
-      </c>
-      <c r="C30" t="n">
-        <v>48</v>
-      </c>
-      <c r="D30" t="n">
-        <v>52</v>
-      </c>
-      <c r="E30" t="n">
-        <v>57</v>
-      </c>
-      <c r="F30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G30" t="n">
-        <v>293</v>
-      </c>
-      <c r="H30" t="n">
-        <v>290</v>
-      </c>
-      <c r="I30" t="n">
-        <v>48.83</v>
-      </c>
-      <c r="J30" t="n">
-        <v>48</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>57</v>
-      </c>
-      <c r="B31" t="n">
-        <v>62</v>
-      </c>
-      <c r="C31" t="n">
-        <v>52</v>
-      </c>
-      <c r="D31" t="n">
-        <v>55</v>
-      </c>
-      <c r="E31" t="n">
-        <v>48</v>
-      </c>
-      <c r="F31" t="n">
-        <v>58</v>
-      </c>
-      <c r="G31" t="n">
-        <v>332</v>
-      </c>
-      <c r="H31" t="n">
-        <v>290</v>
-      </c>
-      <c r="I31" t="n">
-        <v>55.33</v>
-      </c>
-      <c r="J31" t="n">
-        <v>48</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>47</v>
-      </c>
-      <c r="B32" t="n">
-        <v>51</v>
-      </c>
-      <c r="C32" t="n">
-        <v>57</v>
-      </c>
-      <c r="D32" t="n">
-        <v>54</v>
-      </c>
-      <c r="E32" t="n">
-        <v>47</v>
-      </c>
-      <c r="F32" t="n">
-        <v>47</v>
-      </c>
-      <c r="G32" t="n">
-        <v>303</v>
-      </c>
-      <c r="H32" t="n">
-        <v>290</v>
-      </c>
-      <c r="I32" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>48</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>50</v>
-      </c>
-      <c r="B33" t="n">
-        <v>57</v>
-      </c>
-      <c r="C33" t="n">
-        <v>63</v>
-      </c>
-      <c r="D33" t="n">
-        <v>41</v>
-      </c>
-      <c r="E33" t="n">
-        <v>46</v>
-      </c>
-      <c r="F33" t="n">
-        <v>49</v>
-      </c>
-      <c r="G33" t="n">
-        <v>306</v>
-      </c>
-      <c r="H33" t="n">
-        <v>290</v>
-      </c>
-      <c r="I33" t="n">
-        <v>51</v>
-      </c>
-      <c r="J33" t="n">
-        <v>48</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bola 1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>bola 2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bola 3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bola 4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bola 5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>bola 6</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Média das Frequencias</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Média por bola Esperada</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Desvio Padrão das Bolas</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Probabilidade (E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B2" t="n">
-        <v>42</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" t="n">
-        <v>53</v>
-      </c>
-      <c r="G2" t="n">
-        <v>290</v>
-      </c>
-      <c r="H2" t="n">
-        <v>290</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48.33</v>
-      </c>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>46</v>
-      </c>
-      <c r="B3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61</v>
-      </c>
-      <c r="E3" t="n">
-        <v>46</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39</v>
-      </c>
-      <c r="G3" t="n">
-        <v>290</v>
-      </c>
-      <c r="H3" t="n">
-        <v>290</v>
-      </c>
-      <c r="I3" t="n">
-        <v>48.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>